--- a/biology/Botanique/Square_Oscar_Behogne/Square_Oscar_Behogne.xlsx
+++ b/biology/Botanique/Square_Oscar_Behogne/Square_Oscar_Behogne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Square Oscar Behogne est situé dans le village de Nalinnes en Belgique.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom d'Oscar Behogne, ancien Bourgmestre de Nalinnes de 1965 à 1970.
 </t>
@@ -543,7 +557,9 @@
           <t>Monuments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux monuments sont présents dans le square.
 La premier rend hommage aux victimes nalinnoises de la Première Guerre mondiale. Il est composé d'un monument principal et des huit stèles, reprenant le nom des victimes.
